--- a/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业零售营业面积.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业零售营业面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1820 +598,1189 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.6417</v>
+      </c>
+      <c r="C2" t="n">
+        <v>813.864</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>2237.1941</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.6635</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.2761</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10726.4452</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.3256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1086.717</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.2738</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1340.6782</v>
+      </c>
+      <c r="P2" t="n">
+        <v>431.8987</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2259.7841</v>
+      </c>
+      <c r="R2" t="n">
+        <v>331.9885</v>
+      </c>
+      <c r="S2" t="n">
+        <v>146.9668</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="U2" t="n">
+        <v>689.6718</v>
+      </c>
+      <c r="V2" t="n">
+        <v>208.7805</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21.6367</v>
+      </c>
+      <c r="X2" t="n">
+        <v>878.2104</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>26.8768</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>157.1262</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1083.8501</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.0819</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>40.4842</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6165.1189</v>
+      </c>
       <c r="AE2" t="n">
-        <v>1732.963</v>
+        <v>12756.7952</v>
       </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>57.1329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.9097</v>
+        <v>66.3672</v>
       </c>
       <c r="C3" t="n">
-        <v>135.9428</v>
+        <v>892.3833</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>706.5071</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>2654.8134</v>
+      </c>
+      <c r="F3" t="n">
+        <v>251.6127</v>
+      </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0.5514</v>
       </c>
       <c r="H3" t="n">
-        <v>2.251</v>
+        <v>51.3685</v>
       </c>
       <c r="I3" t="n">
-        <v>2379.4846</v>
+        <v>11475.7526</v>
       </c>
       <c r="J3" t="n">
-        <v>17.13</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>33.9235</v>
+        <v>32.4031</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8881</v>
+        <v>4.276</v>
       </c>
       <c r="M3" t="n">
-        <v>435.843</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>1136.2972</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.3518</v>
+      </c>
       <c r="O3" t="n">
-        <v>213.2945</v>
+        <v>1337.2518</v>
       </c>
       <c r="P3" t="n">
-        <v>4.442</v>
+        <v>373.1495</v>
       </c>
       <c r="Q3" t="n">
-        <v>759.0476</v>
+        <v>2687.2165</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1951</v>
+        <v>191.0202</v>
       </c>
       <c r="S3" t="n">
-        <v>164.1743</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.8088</v>
-      </c>
+        <v>151.212</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>185.4556</v>
+        <v>857.6552</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6002</v>
+        <v>263.8103</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7602</v>
+        <v>23.9081</v>
       </c>
       <c r="X3" t="n">
-        <v>288.904</v>
+        <v>904.3253999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.518</v>
+        <v>14.9856</v>
       </c>
       <c r="Z3" t="n">
-        <v>29.1237</v>
+        <v>127.5549</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.6016</v>
+        <v>1070.774</v>
       </c>
       <c r="AB3" t="n">
-        <v>20.0181</v>
+        <v>4.9202</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.0128</v>
+        <v>19.9744</v>
       </c>
       <c r="AD3" t="n">
-        <v>737.6978</v>
+        <v>6462.7168</v>
       </c>
       <c r="AE3" t="n">
-        <v>2780.1905</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
+        <v>13670.6596</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>36.0127</v>
+        <v>42.485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.8982</v>
+        <v>54.045</v>
       </c>
       <c r="C4" t="n">
-        <v>160.6697</v>
+        <v>963.0309</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>940.7465</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>2810.2662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>343.9309</v>
+      </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>0.7876</v>
       </c>
       <c r="H4" t="n">
-        <v>2.472</v>
+        <v>48.7335</v>
       </c>
       <c r="I4" t="n">
-        <v>3021.3516</v>
+        <v>12341.3954</v>
       </c>
       <c r="J4" t="n">
-        <v>19.2067</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>40.388</v>
+        <v>9.643800000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9441000000000001</v>
+        <v>9.796099999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>534.1757</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>1270.7881</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4376</v>
+      </c>
       <c r="O4" t="n">
-        <v>250.5094</v>
+        <v>1349.6241</v>
       </c>
       <c r="P4" t="n">
-        <v>5.9415</v>
+        <v>328.1106</v>
       </c>
       <c r="Q4" t="n">
-        <v>999.3528</v>
+        <v>2819.91</v>
       </c>
       <c r="R4" t="n">
-        <v>23.5325</v>
+        <v>202.7505</v>
       </c>
       <c r="S4" t="n">
-        <v>209.1609</v>
+        <v>164.0407</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8088</v>
+        <v>3.704</v>
       </c>
       <c r="U4" t="n">
-        <v>242.8021</v>
+        <v>1074.8353</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6227</v>
+        <v>360.4092</v>
       </c>
       <c r="W4" t="n">
-        <v>2.0322</v>
+        <v>24.9148</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2815</v>
+        <v>922.0758</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.6061</v>
+        <v>37.6697</v>
       </c>
       <c r="Z4" t="n">
-        <v>34.3884</v>
+        <v>110.1856</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.4145</v>
+        <v>1094.8459</v>
       </c>
       <c r="AB4" t="n">
-        <v>23.3008</v>
+        <v>10.6765</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.6644</v>
+        <v>13.4188</v>
       </c>
       <c r="AD4" t="n">
-        <v>973.4746</v>
+        <v>7042.3719</v>
       </c>
       <c r="AE4" t="n">
-        <v>7202.6</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
+        <v>14765.8548</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>41.4968</v>
+        <v>40.6507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.8396</v>
+        <v>77.5873</v>
       </c>
       <c r="C5" t="n">
-        <v>305.1645</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>989.4878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09080000000000001</v>
+      </c>
       <c r="E5" t="n">
-        <v>1343.9748</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>3033.5519</v>
+      </c>
+      <c r="F5" t="n">
+        <v>339.5282</v>
+      </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0.879</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8841</v>
+        <v>43.9821</v>
       </c>
       <c r="I5" t="n">
-        <v>7793.5205</v>
+        <v>13028.5917</v>
       </c>
       <c r="J5" t="n">
-        <v>28.0687</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>55.0949</v>
+        <v>14.9367</v>
       </c>
       <c r="L5" t="n">
-        <v>2.0247</v>
+        <v>8.7075</v>
       </c>
       <c r="M5" t="n">
-        <v>1687.958</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>1146.5462</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.7949</v>
+      </c>
       <c r="O5" t="n">
-        <v>513.9393</v>
+        <v>1456.9259</v>
       </c>
       <c r="P5" t="n">
-        <v>35.9352</v>
+        <v>386.9651</v>
       </c>
       <c r="Q5" t="n">
-        <v>1399.0697</v>
+        <v>3048.4886</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6329</v>
+        <v>242.8355</v>
       </c>
       <c r="S5" t="n">
-        <v>333.9525</v>
+        <v>182.0319</v>
       </c>
       <c r="T5" t="n">
-        <v>14.7856</v>
+        <v>7.6147</v>
       </c>
       <c r="U5" t="n">
-        <v>380.0246</v>
+        <v>1154.8308</v>
       </c>
       <c r="V5" t="n">
-        <v>29.6536</v>
+        <v>382.8205</v>
       </c>
       <c r="W5" t="n">
-        <v>19.1731</v>
+        <v>28.5699</v>
       </c>
       <c r="X5" t="n">
-        <v>564.2575000000001</v>
+        <v>1042.5636</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5463</v>
+        <v>21.9525</v>
       </c>
       <c r="Z5" t="n">
-        <v>38.2553</v>
+        <v>188.2197</v>
       </c>
       <c r="AA5" t="n">
-        <v>638.2322</v>
+        <v>1281.3057</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.4934</v>
+        <v>9.6793</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.2742</v>
+        <v>5.302</v>
       </c>
       <c r="AD5" t="n">
-        <v>3893.353</v>
+        <v>7433.6381</v>
       </c>
       <c r="AE5" t="n">
-        <v>8202.7379</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>4.4</v>
-      </c>
+        <v>15640.3484</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>31.2559</v>
+        <v>59.6497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.8729</v>
+        <v>90.9699</v>
       </c>
       <c r="C6" t="n">
-        <v>492.2411</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1053.2957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0602</v>
+      </c>
       <c r="E6" t="n">
-        <v>1518.4965</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>3154.373</v>
+      </c>
+      <c r="F6" t="n">
+        <v>275.3296</v>
+      </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>0.7866</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4959</v>
+        <v>43.6767</v>
       </c>
       <c r="I6" t="n">
-        <v>8024.5421</v>
+        <v>13497.8067</v>
       </c>
       <c r="J6" t="n">
-        <v>29.421</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>189.4065</v>
+        <v>9.5343</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4138</v>
+        <v>8.583600000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>750.1746000000001</v>
+        <v>1154.3402</v>
       </c>
       <c r="N6" t="n">
-        <v>0.335</v>
+        <v>3.0761</v>
       </c>
       <c r="O6" t="n">
-        <v>756.0972</v>
+        <v>1596.0185</v>
       </c>
       <c r="P6" t="n">
-        <v>137.6482</v>
+        <v>448.6166</v>
       </c>
       <c r="Q6" t="n">
-        <v>1707.903</v>
+        <v>3163.9073</v>
       </c>
       <c r="R6" t="n">
-        <v>7.2065</v>
+        <v>250.6948</v>
       </c>
       <c r="S6" t="n">
-        <v>147.0967</v>
+        <v>191.8397</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>5.1944</v>
       </c>
       <c r="U6" t="n">
-        <v>198.3502</v>
+        <v>1127.4588</v>
       </c>
       <c r="V6" t="n">
-        <v>42.447</v>
+        <v>404.4003</v>
       </c>
       <c r="W6" t="n">
-        <v>23.9037</v>
+        <v>27.9756</v>
       </c>
       <c r="X6" t="n">
-        <v>632.2285000000001</v>
+        <v>1102.707</v>
       </c>
       <c r="Y6" t="n">
-        <v>46.2901</v>
+        <v>19.5163</v>
       </c>
       <c r="Z6" t="n">
-        <v>45.6197</v>
+        <v>201.0581</v>
       </c>
       <c r="AA6" t="n">
-        <v>748.042</v>
+        <v>1351.257</v>
       </c>
       <c r="AB6" t="n">
-        <v>34.2348</v>
+        <v>9.462999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>36.1126</v>
+        <v>5.927</v>
       </c>
       <c r="AD6" t="n">
-        <v>4686.2081</v>
+        <v>7717.2077</v>
       </c>
       <c r="AE6" t="n">
-        <v>9549.650100000001</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1.4</v>
-      </c>
+        <v>16221.284</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>42.3711</v>
+        <v>52.0278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.2834</v>
+        <v>98.9996</v>
       </c>
       <c r="C7" t="n">
-        <v>527.4922</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>987.6527</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0602</v>
+      </c>
       <c r="E7" t="n">
-        <v>2044.6685</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>3361.3441</v>
+      </c>
+      <c r="F7" t="n">
+        <v>528.6328</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.5638</v>
+        <v>0.8022</v>
       </c>
       <c r="H7" t="n">
-        <v>11.2842</v>
+        <v>49.4614</v>
       </c>
       <c r="I7" t="n">
-        <v>7798.2978</v>
+        <v>13785.8904</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>55.2602</v>
+        <v>9.6715</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3594</v>
+        <v>2.1563</v>
       </c>
       <c r="M7" t="n">
-        <v>668.2821</v>
+        <v>1211.4085</v>
       </c>
       <c r="N7" t="n">
-        <v>1.4304</v>
+        <v>38.6436</v>
       </c>
       <c r="O7" t="n">
-        <v>804.3614</v>
+        <v>1600.6596</v>
       </c>
       <c r="P7" t="n">
-        <v>196.1554</v>
+        <v>475.3035</v>
       </c>
       <c r="Q7" t="n">
-        <v>2099.9287</v>
+        <v>3371.0156</v>
       </c>
       <c r="R7" t="n">
-        <v>9.1555</v>
+        <v>267.8037</v>
       </c>
       <c r="S7" t="n">
-        <v>164.2873</v>
+        <v>203.3472</v>
       </c>
       <c r="T7" t="n">
-        <v>10.792</v>
+        <v>4.6126</v>
       </c>
       <c r="U7" t="n">
-        <v>289.4728</v>
+        <v>1475.8504</v>
       </c>
       <c r="V7" t="n">
-        <v>105.238</v>
+        <v>471.4541</v>
       </c>
       <c r="W7" t="n">
-        <v>15.1372</v>
+        <v>28.0956</v>
       </c>
       <c r="X7" t="n">
-        <v>621.4404</v>
+        <v>1160.7317</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.867</v>
+        <v>18.0549</v>
       </c>
       <c r="Z7" t="n">
-        <v>46.515</v>
+        <v>197.1149</v>
       </c>
       <c r="AA7" t="n">
-        <v>706.9596</v>
+        <v>1403.9971</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.538</v>
+        <v>3.0513</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.9787</v>
+        <v>5.3527</v>
       </c>
       <c r="AD7" t="n">
-        <v>4244.4033</v>
+        <v>7685.5055</v>
       </c>
       <c r="AE7" t="n">
-        <v>10044.0175</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.5268</v>
-      </c>
+        <v>16862.4004</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>49.9232</v>
+        <v>56.0983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.4785</v>
+        <v>96.0359</v>
       </c>
       <c r="C8" t="n">
-        <v>687.6231</v>
+        <v>996.9481</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2415.5466</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>3409.5909</v>
+      </c>
+      <c r="F8" t="n">
+        <v>608.5922</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.6135</v>
+        <v>0.7866</v>
       </c>
       <c r="H8" t="n">
-        <v>12.8759</v>
+        <v>50.9069</v>
       </c>
       <c r="I8" t="n">
-        <v>8800.6245</v>
+        <v>14232.6546</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>63.6955</v>
+        <v>219.3085</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4384</v>
+        <v>2.1563</v>
       </c>
       <c r="M8" t="n">
-        <v>727.5217</v>
+        <v>1020.4135</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8449</v>
+        <v>45.5748</v>
       </c>
       <c r="O8" t="n">
-        <v>1053.4218</v>
+        <v>1654.3235</v>
       </c>
       <c r="P8" t="n">
-        <v>277.4753</v>
+        <v>515.7646999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2479.2421</v>
+        <v>3628.8994</v>
       </c>
       <c r="R8" t="n">
-        <v>9.248100000000001</v>
+        <v>294.4413</v>
       </c>
       <c r="S8" t="n">
-        <v>189.5098</v>
+        <v>204.0945</v>
       </c>
       <c r="T8" t="n">
-        <v>11.2398</v>
+        <v>4.4753</v>
       </c>
       <c r="U8" t="n">
-        <v>343.7831</v>
+        <v>2073.114</v>
       </c>
       <c r="V8" t="n">
-        <v>133.7854</v>
+        <v>961.5107</v>
       </c>
       <c r="W8" t="n">
-        <v>19.0303</v>
+        <v>26.9647</v>
       </c>
       <c r="X8" t="n">
-        <v>715.6784</v>
+        <v>1207.3099</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.8112</v>
+        <v>14.9444</v>
       </c>
       <c r="Z8" t="n">
-        <v>71.5891</v>
+        <v>212.1159</v>
       </c>
       <c r="AA8" t="n">
-        <v>832.109</v>
+        <v>1461.3349</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.0345</v>
+        <v>3.0357</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.9895</v>
+        <v>55.7918</v>
       </c>
       <c r="AD8" t="n">
-        <v>4669.2814</v>
+        <v>7960.1853</v>
       </c>
       <c r="AE8" t="n">
-        <v>10197.8294</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.8946</v>
-      </c>
+        <v>17960.0921</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>58.5704</v>
+        <v>52.0871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.511</v>
+        <v>88.51049999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>700.4607999999999</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>953.8553000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4199</v>
+      </c>
       <c r="E9" t="n">
-        <v>2389.5713</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>3630.2136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>669.6867999999999</v>
+      </c>
       <c r="G9" t="n">
-        <v>2.4135</v>
+        <v>0.8239</v>
       </c>
       <c r="H9" t="n">
-        <v>16.2206</v>
+        <v>49.0783</v>
       </c>
       <c r="I9" t="n">
-        <v>10075.5487</v>
+        <v>13492.7513</v>
       </c>
       <c r="J9" t="n">
-        <v>0.078</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>6.0702</v>
+        <v>243.8123</v>
       </c>
       <c r="L9" t="n">
-        <v>2.8898</v>
+        <v>2.1706</v>
       </c>
       <c r="M9" t="n">
-        <v>833.2469</v>
+        <v>1030.1</v>
       </c>
       <c r="N9" t="n">
-        <v>12.1137</v>
+        <v>44.3083</v>
       </c>
       <c r="O9" t="n">
-        <v>1116.9615</v>
+        <v>1585.0197</v>
       </c>
       <c r="P9" t="n">
-        <v>339.876</v>
+        <v>497.9257</v>
       </c>
       <c r="Q9" t="n">
-        <v>2395.6415</v>
+        <v>3874.0259</v>
       </c>
       <c r="R9" t="n">
-        <v>272.459</v>
+        <v>309.3037</v>
       </c>
       <c r="S9" t="n">
-        <v>148.2641</v>
+        <v>223.8011</v>
       </c>
       <c r="T9" t="n">
-        <v>12.146</v>
+        <v>11.8215</v>
       </c>
       <c r="U9" t="n">
-        <v>616.6919</v>
+        <v>2251.848</v>
       </c>
       <c r="V9" t="n">
-        <v>183.8228</v>
+        <v>1037.2349</v>
       </c>
       <c r="W9" t="n">
-        <v>19.5916</v>
+        <v>13.7785</v>
       </c>
       <c r="X9" t="n">
-        <v>904.2676</v>
+        <v>1379.9559</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.5536</v>
+        <v>12.8785</v>
       </c>
       <c r="Z9" t="n">
-        <v>98.6837</v>
+        <v>237.0154</v>
       </c>
       <c r="AA9" t="n">
-        <v>1064.0965</v>
+        <v>1643.6283</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.3813</v>
+        <v>3.0873</v>
       </c>
       <c r="AC9" t="n">
-        <v>28.5073</v>
+        <v>47.7012</v>
       </c>
       <c r="AD9" t="n">
-        <v>5553.3773</v>
+        <v>6794.0802</v>
       </c>
       <c r="AE9" t="n">
-        <v>11809.2021</v>
+        <v>17329.619</v>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>179.0773</v>
+        <v>51.0501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.6417</v>
+        <v>149.6706</v>
       </c>
       <c r="C10" t="n">
-        <v>813.864</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>854.1937</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.2</v>
+      </c>
       <c r="E10" t="n">
-        <v>2237.1941</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>3674.5051</v>
+      </c>
+      <c r="F10" t="n">
+        <v>700.8434</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.6635</v>
+        <v>0.7439</v>
       </c>
       <c r="H10" t="n">
-        <v>29.2761</v>
+        <v>25.1109</v>
       </c>
       <c r="I10" t="n">
-        <v>10726.4452</v>
+        <v>14376.1911</v>
       </c>
       <c r="J10" t="n">
         <v>0.09279999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>22.59</v>
+        <v>310.3128</v>
       </c>
       <c r="L10" t="n">
-        <v>3.3256</v>
+        <v>1.923</v>
       </c>
       <c r="M10" t="n">
-        <v>1086.717</v>
+        <v>946.2415999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2738</v>
+        <v>108.4321</v>
       </c>
       <c r="O10" t="n">
-        <v>1340.6782</v>
+        <v>1715.1319</v>
       </c>
       <c r="P10" t="n">
-        <v>431.8987</v>
+        <v>597.6355</v>
       </c>
       <c r="Q10" t="n">
-        <v>2259.7841</v>
+        <v>3984.8179</v>
       </c>
       <c r="R10" t="n">
-        <v>331.9885</v>
+        <v>345.4618</v>
       </c>
       <c r="S10" t="n">
-        <v>146.9668</v>
+        <v>178.4214</v>
       </c>
       <c r="T10" t="n">
-        <v>1.936</v>
+        <v>12.1279</v>
       </c>
       <c r="U10" t="n">
-        <v>689.6718</v>
+        <v>1833.3558</v>
       </c>
       <c r="V10" t="n">
-        <v>208.7805</v>
+        <v>596.5013</v>
       </c>
       <c r="W10" t="n">
-        <v>21.6367</v>
+        <v>6.7125</v>
       </c>
       <c r="X10" t="n">
-        <v>878.2104</v>
+        <v>1547.2086</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.8768</v>
+        <v>11.3141</v>
       </c>
       <c r="Z10" t="n">
-        <v>157.1262</v>
+        <v>195.5414</v>
       </c>
       <c r="AA10" t="n">
-        <v>1083.8501</v>
+        <v>1760.7766</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.0819</v>
+        <v>2.7597</v>
       </c>
       <c r="AC10" t="n">
-        <v>40.4842</v>
+        <v>43.9764</v>
       </c>
       <c r="AD10" t="n">
-        <v>6165.1189</v>
+        <v>7572.1096</v>
       </c>
       <c r="AE10" t="n">
-        <v>12756.7952</v>
+        <v>17924.6788</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>57.1329</v>
+        <v>40.3984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.3672</v>
+        <v>86.40009999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>892.3833</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>1523.7295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.9422</v>
+      </c>
       <c r="E11" t="n">
-        <v>2654.8134</v>
+        <v>3341.1304</v>
       </c>
       <c r="F11" t="n">
-        <v>251.6127</v>
+        <v>0.6073</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5514</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>51.3685</v>
+        <v>23.4578</v>
       </c>
       <c r="I11" t="n">
-        <v>11475.7526</v>
+        <v>13847.2941</v>
       </c>
       <c r="J11" t="n">
         <v>0.09279999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>32.4031</v>
+        <v>144.7972</v>
       </c>
       <c r="L11" t="n">
-        <v>4.276</v>
+        <v>2.4028</v>
       </c>
       <c r="M11" t="n">
-        <v>1136.2972</v>
+        <v>951.5288</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3518</v>
+        <v>703.6876</v>
       </c>
       <c r="O11" t="n">
-        <v>1337.2518</v>
+        <v>3101.9813</v>
       </c>
       <c r="P11" t="n">
-        <v>373.1495</v>
+        <v>688.2219</v>
       </c>
       <c r="Q11" t="n">
-        <v>2687.2165</v>
+        <v>3485.9276</v>
       </c>
       <c r="R11" t="n">
-        <v>191.0202</v>
+        <v>327.5982</v>
       </c>
       <c r="S11" t="n">
-        <v>151.212</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>490.9941</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9.869199999999999</v>
+      </c>
       <c r="U11" t="n">
-        <v>857.6552</v>
+        <v>1435.6257</v>
       </c>
       <c r="V11" t="n">
-        <v>263.8103</v>
+        <v>606.5569</v>
       </c>
       <c r="W11" t="n">
-        <v>23.9081</v>
+        <v>6.118</v>
       </c>
       <c r="X11" t="n">
-        <v>904.3253999999999</v>
+        <v>1953.1355</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.9856</v>
+        <v>13.8174</v>
       </c>
       <c r="Z11" t="n">
-        <v>127.5549</v>
+        <v>132.3744</v>
       </c>
       <c r="AA11" t="n">
-        <v>1070.774</v>
+        <v>2105.4453</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.9202</v>
+        <v>3.1695</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.9744</v>
+        <v>43.4114</v>
       </c>
       <c r="AD11" t="n">
-        <v>6462.7168</v>
+        <v>7187.1737</v>
       </c>
       <c r="AE11" t="n">
-        <v>13670.6596</v>
+        <v>18384.9011</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>42.485</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.045</v>
+        <v>80.2282</v>
       </c>
       <c r="C12" t="n">
-        <v>963.0309</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>1162.1448</v>
+      </c>
+      <c r="D12" t="n">
+        <v>125.7159</v>
+      </c>
       <c r="E12" t="n">
-        <v>2810.2662</v>
+        <v>3537.3801</v>
       </c>
       <c r="F12" t="n">
-        <v>343.9309</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7876</v>
-      </c>
+        <v>0.8502999999999999</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>48.7335</v>
+        <v>25.0862</v>
       </c>
       <c r="I12" t="n">
-        <v>12341.3954</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.09279999999999999</v>
-      </c>
+        <v>13707.2583</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>9.643800000000001</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9.796099999999999</v>
-      </c>
+        <v>85.2067</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1270.7881</v>
+        <v>891.9646</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4376</v>
+        <v>1112.2257</v>
       </c>
       <c r="O12" t="n">
-        <v>1349.6241</v>
+        <v>3055.2265</v>
       </c>
       <c r="P12" t="n">
-        <v>328.1106</v>
+        <v>574.9118999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>2819.91</v>
+        <v>3622.5868</v>
       </c>
       <c r="R12" t="n">
-        <v>202.7505</v>
+        <v>329.4912</v>
       </c>
       <c r="S12" t="n">
-        <v>164.0407</v>
+        <v>501.5337</v>
       </c>
       <c r="T12" t="n">
-        <v>3.704</v>
+        <v>11.3754</v>
       </c>
       <c r="U12" t="n">
-        <v>1074.8353</v>
+        <v>1514.153</v>
       </c>
       <c r="V12" t="n">
-        <v>360.4092</v>
+        <v>670.9023999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>24.9148</v>
+        <v>6.2756</v>
       </c>
       <c r="X12" t="n">
-        <v>922.0758</v>
+        <v>1656.2347</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.6697</v>
+        <v>13.3271</v>
       </c>
       <c r="Z12" t="n">
-        <v>110.1856</v>
+        <v>139.258</v>
       </c>
       <c r="AA12" t="n">
-        <v>1094.8459</v>
+        <v>1815.0954</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.6765</v>
+        <v>2.4655</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.4188</v>
+        <v>43.8844</v>
       </c>
       <c r="AD12" t="n">
-        <v>7042.3719</v>
+        <v>7259.6864</v>
       </c>
       <c r="AE12" t="n">
-        <v>14765.8548</v>
+        <v>18276.6378</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>40.6507</v>
+        <v>46.489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.5873</v>
+        <v>93.3039</v>
       </c>
       <c r="C13" t="n">
-        <v>989.4878</v>
+        <v>1088.8202</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09080000000000001</v>
+        <v>126.938</v>
       </c>
       <c r="E13" t="n">
-        <v>3033.5519</v>
+        <v>3723.6932</v>
       </c>
       <c r="F13" t="n">
-        <v>339.5282</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.879</v>
-      </c>
+        <v>0.87</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>43.9821</v>
+        <v>22.2264</v>
       </c>
       <c r="I13" t="n">
-        <v>13028.5917</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.09279999999999999</v>
-      </c>
+        <v>13426.3719</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>14.9367</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.7075</v>
-      </c>
+        <v>82.4504</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>1146.5462</v>
+        <v>1009.6583</v>
       </c>
       <c r="N13" t="n">
-        <v>2.7949</v>
+        <v>1676.1755</v>
       </c>
       <c r="O13" t="n">
-        <v>1456.9259</v>
+        <v>3614.399</v>
       </c>
       <c r="P13" t="n">
-        <v>386.9651</v>
+        <v>629.1614</v>
       </c>
       <c r="Q13" t="n">
-        <v>3048.4886</v>
+        <v>3806.1436</v>
       </c>
       <c r="R13" t="n">
-        <v>242.8355</v>
+        <v>330.6306</v>
       </c>
       <c r="S13" t="n">
-        <v>182.0319</v>
+        <v>531.5572</v>
       </c>
       <c r="T13" t="n">
-        <v>7.6147</v>
+        <v>143.0195</v>
       </c>
       <c r="U13" t="n">
-        <v>1154.8308</v>
+        <v>1655.1025</v>
       </c>
       <c r="V13" t="n">
-        <v>382.8205</v>
+        <v>649.0252</v>
       </c>
       <c r="W13" t="n">
-        <v>28.5699</v>
+        <v>6.4045</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.5636</v>
+        <v>1746.9537</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9525</v>
+        <v>18.8388</v>
       </c>
       <c r="Z13" t="n">
-        <v>188.2197</v>
+        <v>155.074</v>
       </c>
       <c r="AA13" t="n">
-        <v>1281.3057</v>
+        <v>1927.271</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6793</v>
+        <v>2.4495</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.302</v>
+        <v>33.4211</v>
       </c>
       <c r="AD13" t="n">
-        <v>7433.6381</v>
+        <v>6578.4892</v>
       </c>
       <c r="AE13" t="n">
-        <v>15640.3484</v>
+        <v>18695.8734</v>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>59.6497</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>90.9699</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1053.2957</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0602</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3154.373</v>
-      </c>
-      <c r="F14" t="n">
-        <v>275.3296</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7866</v>
-      </c>
-      <c r="H14" t="n">
-        <v>43.6767</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13497.8067</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.5343</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.583600000000001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1154.3402</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.0761</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1596.0185</v>
-      </c>
-      <c r="P14" t="n">
-        <v>448.6166</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3163.9073</v>
-      </c>
-      <c r="R14" t="n">
-        <v>250.6948</v>
-      </c>
-      <c r="S14" t="n">
-        <v>191.8397</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5.1944</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1127.4588</v>
-      </c>
-      <c r="V14" t="n">
-        <v>404.4003</v>
-      </c>
-      <c r="W14" t="n">
-        <v>27.9756</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1102.707</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19.5163</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>201.0581</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1351.257</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.462999999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.927</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7717.2077</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16221.284</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>52.0278</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>98.9996</v>
-      </c>
-      <c r="C15" t="n">
-        <v>987.6527</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0602</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3361.3441</v>
-      </c>
-      <c r="F15" t="n">
-        <v>528.6328</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8022</v>
-      </c>
-      <c r="H15" t="n">
-        <v>49.4614</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13785.8904</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.6715</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.1563</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1211.4085</v>
-      </c>
-      <c r="N15" t="n">
-        <v>38.6436</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1600.6596</v>
-      </c>
-      <c r="P15" t="n">
-        <v>475.3035</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3371.0156</v>
-      </c>
-      <c r="R15" t="n">
-        <v>267.8037</v>
-      </c>
-      <c r="S15" t="n">
-        <v>203.3472</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4.6126</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1475.8504</v>
-      </c>
-      <c r="V15" t="n">
-        <v>471.4541</v>
-      </c>
-      <c r="W15" t="n">
-        <v>28.0956</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1160.7317</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>18.0549</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>197.1149</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1403.9971</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>3.0513</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5.3527</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7685.5055</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16862.4004</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>56.0983</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>96.0359</v>
-      </c>
-      <c r="C16" t="n">
-        <v>996.9481</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>3409.5909</v>
-      </c>
-      <c r="F16" t="n">
-        <v>608.5922</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7866</v>
-      </c>
-      <c r="H16" t="n">
-        <v>50.9069</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14232.6546</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>219.3085</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.1563</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1020.4135</v>
-      </c>
-      <c r="N16" t="n">
-        <v>45.5748</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1654.3235</v>
-      </c>
-      <c r="P16" t="n">
-        <v>515.7646999999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3628.8994</v>
-      </c>
-      <c r="R16" t="n">
-        <v>294.4413</v>
-      </c>
-      <c r="S16" t="n">
-        <v>204.0945</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.4753</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2073.114</v>
-      </c>
-      <c r="V16" t="n">
-        <v>961.5107</v>
-      </c>
-      <c r="W16" t="n">
-        <v>26.9647</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1207.3099</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>14.9444</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>212.1159</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1461.3349</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>3.0357</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>55.7918</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7960.1853</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17960.0921</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>52.0871</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>88.51049999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>953.8553000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3630.2136</v>
-      </c>
-      <c r="F17" t="n">
-        <v>669.6867999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8239</v>
-      </c>
-      <c r="H17" t="n">
-        <v>49.0783</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13492.7513</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>243.8123</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.1706</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1030.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>44.3083</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1585.0197</v>
-      </c>
-      <c r="P17" t="n">
-        <v>497.9257</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3874.0259</v>
-      </c>
-      <c r="R17" t="n">
-        <v>309.3037</v>
-      </c>
-      <c r="S17" t="n">
-        <v>223.8011</v>
-      </c>
-      <c r="T17" t="n">
-        <v>11.8215</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2251.848</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1037.2349</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13.7785</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1379.9559</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12.8785</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>237.0154</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1643.6283</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>3.0873</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>47.7012</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6794.0802</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17329.619</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>51.0501</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>149.6706</v>
-      </c>
-      <c r="C18" t="n">
-        <v>854.1937</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3674.5051</v>
-      </c>
-      <c r="F18" t="n">
-        <v>700.8434</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.7439</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25.1109</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14376.1911</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>310.3128</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="M18" t="n">
-        <v>946.2415999999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>108.4321</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1715.1319</v>
-      </c>
-      <c r="P18" t="n">
-        <v>597.6355</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3984.8179</v>
-      </c>
-      <c r="R18" t="n">
-        <v>345.4618</v>
-      </c>
-      <c r="S18" t="n">
-        <v>178.4214</v>
-      </c>
-      <c r="T18" t="n">
-        <v>12.1279</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1833.3558</v>
-      </c>
-      <c r="V18" t="n">
-        <v>596.5013</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6.7125</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1547.2086</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11.3141</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>195.5414</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1760.7766</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2.7597</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>43.9764</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7572.1096</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17924.6788</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>40.3984</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>86.40009999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1523.7295</v>
-      </c>
-      <c r="D19" t="n">
-        <v>99.9422</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3341.1304</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.6739000000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>23.4578</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13847.2941</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>144.7972</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.4028</v>
-      </c>
-      <c r="M19" t="n">
-        <v>951.5288</v>
-      </c>
-      <c r="N19" t="n">
-        <v>703.6876</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3101.9813</v>
-      </c>
-      <c r="P19" t="n">
-        <v>688.2219</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3485.9276</v>
-      </c>
-      <c r="R19" t="n">
-        <v>327.5982</v>
-      </c>
-      <c r="S19" t="n">
-        <v>490.9941</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9.869199999999999</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1435.6257</v>
-      </c>
-      <c r="V19" t="n">
-        <v>606.5569</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.118</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1953.1355</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>13.8174</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>132.3744</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2105.4453</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>3.1695</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>43.4114</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7187.1737</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>18384.9011</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>47.18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>80.2282</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1162.1448</v>
-      </c>
-      <c r="D20" t="n">
-        <v>125.7159</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3537.3801</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8502999999999999</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>25.0862</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13707.2583</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>85.2067</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>891.9646</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1112.2257</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3055.2265</v>
-      </c>
-      <c r="P20" t="n">
-        <v>574.9118999999999</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3622.5868</v>
-      </c>
-      <c r="R20" t="n">
-        <v>329.4912</v>
-      </c>
-      <c r="S20" t="n">
-        <v>501.5337</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11.3754</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1514.153</v>
-      </c>
-      <c r="V20" t="n">
-        <v>670.9023999999999</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.2756</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1656.2347</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>13.3271</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>139.258</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1815.0954</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.4655</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>43.8844</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7259.6864</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>18276.6378</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>46.489</v>
+        <v>46.7128</v>
       </c>
     </row>
   </sheetData>
